--- a/Notes_and_Guides/METR_Tables.xlsx
+++ b/Notes_and_Guides/METR_Tables.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Parameters" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="81">
   <si>
     <t>Parameter</t>
   </si>
@@ -34,9 +34,6 @@
     <t>Inflation rate</t>
   </si>
   <si>
-    <t>CBO Economic Forecast</t>
-  </si>
-  <si>
     <t>$\pi$</t>
   </si>
   <si>
@@ -46,15 +43,9 @@
     <t>Nominal interest rate</t>
   </si>
   <si>
-    <t>$E$</t>
-  </si>
-  <si>
     <t>Required real return on equity</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Vary by industry</t>
   </si>
   <si>
@@ -70,21 +61,12 @@
     <t>Maybe</t>
   </si>
   <si>
-    <t>$u$</t>
-  </si>
-  <si>
     <t>Statory business entity-level income tax</t>
   </si>
   <si>
-    <t>Internal Revenue Code</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>$z(y)$</t>
-  </si>
-  <si>
     <t>Tax depreciation allowance</t>
   </si>
   <si>
@@ -94,23 +76,200 @@
     <t>Buruea of Economic Analysis</t>
   </si>
   <si>
-    <t>$\delta$</t>
-  </si>
-  <si>
-    <t>$f$</t>
-  </si>
-  <si>
     <t>Fraction of investment financed with debt</t>
   </si>
   <si>
     <t>Financial Accounts of U.S. + SOI data</t>
+  </si>
+  <si>
+    <t>Property tax rate</t>
+  </si>
+  <si>
+    <t>User input - zero at federal level under current law</t>
+  </si>
+  <si>
+    <t>$E_{c}$</t>
+  </si>
+  <si>
+    <t>$u_{c}$</t>
+  </si>
+  <si>
+    <t>$w_{c}$</t>
+  </si>
+  <si>
+    <t>$z_{i}(y)$</t>
+  </si>
+  <si>
+    <t>$\delta_{i}$</t>
+  </si>
+  <si>
+    <t>$f_{m,c}$</t>
+  </si>
+  <si>
+    <t>* will vary by tax treatment only mechanically =s_{nc}= E_{nc} = s_{c,e}</t>
+  </si>
+  <si>
+    <t>For METTRs:</t>
+  </si>
+  <si>
+    <t>$\alpha_{d,ft}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{d,td}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{d,nt}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{e,ft}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{e,td}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{e,nt}$</t>
+  </si>
+  <si>
+    <t>Fraction of debt held in fully taxable accounts</t>
+  </si>
+  <si>
+    <t>Fraction of debt held in tax deferred accounts</t>
+  </si>
+  <si>
+    <t>Fraction of debt held in non-taxable account</t>
+  </si>
+  <si>
+    <t>Fraction of equity held in fully taxable accounts</t>
+  </si>
+  <si>
+    <t>Fraction of equity held in tax deferred accounts</t>
+  </si>
+  <si>
+    <t>Fraction of equity held in non-taxable account</t>
+  </si>
+  <si>
+    <t>Fraction of earnings retained</t>
+  </si>
+  <si>
+    <t>*might be able to vary this by industry if we want, m=0 for non-corp businesses</t>
+  </si>
+  <si>
+    <t>$\tau_{div}$</t>
+  </si>
+  <si>
+    <t>$\tau_{int}$</t>
+  </si>
+  <si>
+    <t>Dividend tax rate on marginal investor</t>
+  </si>
+  <si>
+    <t>Interest tax rate on marginal investor</t>
+  </si>
+  <si>
+    <t>Tax Caclulator (?)</t>
+  </si>
+  <si>
+    <t>$Y_{scg}$</t>
+  </si>
+  <si>
+    <t>Internal Revenue Code, user input</t>
+  </si>
+  <si>
+    <t>CBO Economic Forecast, user input</t>
+  </si>
+  <si>
+    <t>$Y_{lcg}$</t>
+  </si>
+  <si>
+    <t>N/A - only for corp</t>
+  </si>
+  <si>
+    <t>$\tau_{lcg}$</t>
+  </si>
+  <si>
+    <t>$\tau_{scg}$</t>
+  </si>
+  <si>
+    <t>Short term capital gains rate on marginal investor</t>
+  </si>
+  <si>
+    <t>Long term capital gains rate on marginal investor</t>
+  </si>
+  <si>
+    <t>$\omega_{scg}$</t>
+  </si>
+  <si>
+    <t>$\omega_{lcg}$</t>
+  </si>
+  <si>
+    <t>$\omega_{xcg}$</t>
+  </si>
+  <si>
+    <t>Share of taxable equity investments held for less than one year</t>
+  </si>
+  <si>
+    <t>Share of taxable equity investments held for more than one year, but not until death</t>
+  </si>
+  <si>
+    <t>Share of taxable equity investments held until death</t>
+  </si>
+  <si>
+    <t>$\tau_{td}$</t>
+  </si>
+  <si>
+    <t>Tax on deferred capital income for marginal investor</t>
+  </si>
+  <si>
+    <t>$Y_{td}$</t>
+  </si>
+  <si>
+    <t>Number of years hold a tax deferred investment</t>
+  </si>
+  <si>
+    <t>Number of years hold stock subject to short term gain</t>
+  </si>
+  <si>
+    <t>Number of years hold a stock subject to long term gains</t>
+  </si>
+  <si>
+    <t>$m$**</t>
+  </si>
+  <si>
+    <t>** I'm using the CBO's notation for $m$ here.  We should probably change it since we are using $m$ to represent industry.</t>
+  </si>
+  <si>
+    <t>* for pass through businesses, this will be the rate of the owners</t>
+  </si>
+  <si>
+    <t>SOI</t>
+  </si>
+  <si>
+    <t>Take CBO's number - 8 years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The market interest rate CBO selected was the Baa corporate bond rate of 7.2 percent that CBO forecast in January 2005 for the intermediate term </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The selected return on corporate equity was the long-term historical real rate of return on corporate equities of about 7 percent, of which about 4 percentage points typically has been paid out in dividends; the other 3 points generally have been retained and reinvested </t>
+  </si>
+  <si>
+    <t>Historical rates - take CBO?</t>
+  </si>
+  <si>
+    <t>** We need to note in write up that some things don't change with proposed policies -e.g. rates of return, int rates, shares of ownership of assets.</t>
+  </si>
+  <si>
+    <t>* can we get these share from tax cacl with CPS file?  But still not endogenous to reforms…</t>
+  </si>
+  <si>
+    <t>CBO just uses fact that corp equity return is 7 pct and m=3/7 (see page 74)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -134,6 +293,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="AGaramond"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -152,7 +323,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -162,16 +333,34 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -505,15 +694,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,99 +713,141 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="16">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
+    <hyperlink ref="C2" r:id="rId1" display="CBO Economic Forecast"/>
+    <hyperlink ref="C3" r:id="rId2" display="CBO Economic Forecast"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -630,15 +861,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -649,77 +880,457 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="E4" t="s">
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" t="s">
+        <v>43</v>
+      </c>
+      <c r="H14" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Notes_and_Guides/METR_Tables.xlsx
+++ b/Notes_and_Guides/METR_Tables.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Simple Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Complex Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="All" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="97">
   <si>
     <t>Parameter</t>
   </si>
@@ -166,9 +167,6 @@
     <t>Interest tax rate on marginal investor</t>
   </si>
   <si>
-    <t>Tax Caclulator (?)</t>
-  </si>
-  <si>
     <t>$Y_{scg}$</t>
   </si>
   <si>
@@ -214,15 +212,9 @@
     <t>Share of taxable equity investments held until death</t>
   </si>
   <si>
-    <t>$\tau_{td}$</t>
-  </si>
-  <si>
     <t>Tax on deferred capital income for marginal investor</t>
   </si>
   <si>
-    <t>$Y_{td}$</t>
-  </si>
-  <si>
     <t>Number of years hold a tax deferred investment</t>
   </si>
   <si>
@@ -263,6 +255,63 @@
   </si>
   <si>
     <t>CBO just uses fact that corp equity return is 7 pct and m=3/7 (see page 74)</t>
+  </si>
+  <si>
+    <t>Required real return on corporate equity</t>
+  </si>
+  <si>
+    <t>$u_{j}$</t>
+  </si>
+  <si>
+    <t>$w_{i,m,j}$</t>
+  </si>
+  <si>
+    <t>$f_{m,j}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{d,ft,j}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{d,td,j}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{d,nt,j}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{e,ft,j}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{e,td,j}$</t>
+  </si>
+  <si>
+    <t>$\alpha_{e,nt,j}$</t>
+  </si>
+  <si>
+    <t>$m_{c}$**</t>
+  </si>
+  <si>
+    <t>Fraction of earnings retained by corporations</t>
+  </si>
+  <si>
+    <t>$\tau_{div,j}$</t>
+  </si>
+  <si>
+    <t>$\tau_{int,j}$</t>
+  </si>
+  <si>
+    <t>$\tau_{td,j}$</t>
+  </si>
+  <si>
+    <t>$Y_{td,j}$</t>
+  </si>
+  <si>
+    <t>Tax Calculator (?)</t>
+  </si>
+  <si>
+    <t>Bureau of Economic Analysis</t>
+  </si>
+  <si>
+    <t>Statutory business entity-level income tax</t>
   </si>
 </sst>
 </file>
@@ -323,7 +372,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="17">
+  <cellStyleXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -341,6 +390,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -348,7 +402,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="17">
+  <cellStyles count="22">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -361,6 +415,11 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -697,7 +756,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -730,7 +789,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -750,7 +809,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -762,7 +821,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="16">
@@ -773,7 +832,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
@@ -788,7 +847,7 @@
         <v>28</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -796,10 +855,10 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -811,7 +870,7 @@
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -841,7 +900,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -863,8 +922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -897,7 +956,7 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -917,7 +976,7 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>95</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -974,7 +1033,7 @@
         <v>11</v>
       </c>
       <c r="G8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1079,7 +1138,7 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -1100,7 +1159,7 @@
         <v>43</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1111,7 +1170,7 @@
         <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D15" t="s">
         <v>11</v>
@@ -1131,7 +1190,7 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D16" t="s">
         <v>11</v>
@@ -1145,19 +1204,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" t="s">
         <v>11</v>
@@ -1165,19 +1224,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s">
-        <v>53</v>
       </c>
       <c r="F18" t="s">
         <v>11</v>
@@ -1185,19 +1244,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="B19" t="s">
-        <v>56</v>
-      </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" t="s">
         <v>11</v>
@@ -1205,19 +1264,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
         <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" t="s">
         <v>11</v>
@@ -1225,19 +1284,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" t="s">
         <v>11</v>
@@ -1245,19 +1304,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" t="s">
         <v>11</v>
@@ -1265,19 +1324,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F23" t="s">
         <v>11</v>
@@ -1285,19 +1344,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B24" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
         <v>11</v>
@@ -1305,19 +1364,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
         <v>11</v>
@@ -1325,7 +1384,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1337,4 +1396,574 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>11</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>94</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="CBO Economic Forecast"/>
+    <hyperlink ref="C3" r:id="rId2" display="CBO Economic Forecast"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Notes_and_Guides/METR_Tables.xlsx
+++ b/Notes_and_Guides/METR_Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27127"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15460" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Simple Parameters" sheetId="1" r:id="rId1"/>
     <sheet name="Complex Parameters" sheetId="2" r:id="rId2"/>
     <sheet name="All" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="102">
   <si>
     <t>Parameter</t>
   </si>
@@ -312,6 +313,21 @@
   </si>
   <si>
     <t>Statutory business entity-level income tax</t>
+  </si>
+  <si>
+    <t>User Defined Parameters</t>
+  </si>
+  <si>
+    <t>Haircut to Interest Deduction</t>
+  </si>
+  <si>
+    <t>Allowance for Corporate Equity</t>
+  </si>
+  <si>
+    <t>Notation?</t>
+  </si>
+  <si>
+    <t>User Input</t>
   </si>
 </sst>
 </file>
@@ -372,7 +388,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -395,6 +411,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -402,7 +422,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -420,6 +440,10 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -922,7 +946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -1403,7 +1427,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A18" sqref="A18:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1966,4 +1990,313 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" display="CBO Economic Forecast"/>
+    <hyperlink ref="C4" r:id="rId2" display="CBO Economic Forecast"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Notes_and_Guides/METR_Tables.xlsx
+++ b/Notes_and_Guides/METR_Tables.xlsx
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2092,7 +2092,7 @@
         <v>79</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
       <c r="C6" t="s">
         <v>49</v>
